--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csharmila\Documents\UiPath\POS-TestAutomationProject\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csharmila\Documents\UiPath\POSCUI\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,9 +102,6 @@
     <t>Tilak</t>
   </si>
   <si>
-    <t>Sale/Return</t>
-  </si>
-  <si>
     <t>Sale</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
     <t>Complete the return successfully and return to main menu
 If salesperson ID is incorrect, capture error and return to main screen
 If customer is not available, capture error and return to main screen</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -551,7 +553,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -566,13 +568,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
@@ -593,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
@@ -607,7 +609,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6">
         <v>5649</v>
@@ -641,19 +643,19 @@
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
         <v>5649</v>
@@ -671,7 +673,7 @@
         <v>1234</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="6">
         <v>44333</v>
@@ -692,22 +694,22 @@
         <v>5</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="8"/>
       <c r="R3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>5649</v>
@@ -732,18 +734,18 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6">
         <v>5649</v>
@@ -768,18 +770,18 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="6">
         <v>5649</v>
@@ -797,7 +799,7 @@
         <v>1234</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6">
         <v>44333</v>
@@ -819,19 +821,19 @@
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6">
         <v>5649</v>
@@ -849,7 +851,7 @@
         <v>1234</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6">
         <v>44333</v>
@@ -864,10 +866,10 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Sale with Cash - ESP and Promo Code</t>
-  </si>
-  <si>
-    <t>B5550000001011</t>
   </si>
   <si>
     <t>Complete the Sale successfully and return to main menu
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>ABZZ0000001019</t>
   </si>
 </sst>
 </file>
@@ -536,9 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -553,7 +551,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -568,13 +566,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
@@ -595,10 +593,10 @@
         <v>16</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>26</v>
@@ -643,19 +641,19 @@
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="8"/>
       <c r="R2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>5649</v>
@@ -667,49 +665,31 @@
         <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="6">
-        <v>44333</v>
-      </c>
-      <c r="J3" s="6">
-        <v>200181600</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="R3" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>5649</v>
@@ -734,18 +714,18 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6">
         <v>5649</v>
@@ -760,25 +740,37 @@
         <v>5</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="J5" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="8"/>
       <c r="R5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>25</v>
@@ -799,7 +791,7 @@
         <v>1234</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6">
         <v>44333</v>
@@ -821,19 +813,19 @@
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="8"/>
       <c r="R6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6">
         <v>5649</v>
@@ -851,7 +843,7 @@
         <v>1234</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" s="6">
         <v>44333</v>
@@ -866,10 +858,10 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -684,12 +684,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
         <v>5649</v>
@@ -704,28 +704,40 @@
         <v>5</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="J4" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="8"/>
       <c r="R4" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6">
         <v>5649</v>
@@ -740,32 +752,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6">
-        <v>200181600</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="8"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="R5" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">

--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csharmila\Documents\UiPath\POSCUI\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuganathan\Documents\UiPath\POSCUIerror\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -123,9 +123,6 @@
     <t>&lt;Update Slip number on successful transaction or leave it blank on failure&gt;</t>
   </si>
   <si>
-    <t>Cash Return</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
@@ -170,6 +167,15 @@
   </si>
   <si>
     <t>ABZZ0000001019</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CHUI - Sale with Non-PLCC customer and Exchange up</t>
+  </si>
+  <si>
+    <t>CHUI - Sale with Non-PLCC customer and Exchange down</t>
   </si>
 </sst>
 </file>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -254,6 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,24 +541,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="10.77734375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="5"/>
+    <col min="2" max="18" width="10.77734375" style="5" customWidth="1"/>
+    <col min="19" max="19" width="44.33203125" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -566,45 +575,48 @@
         <v>13</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>25</v>
@@ -622,38 +634,41 @@
         <v>5</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6">
         <v>200181600</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="P2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>5649</v>
@@ -677,16 +692,17 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>25</v>
@@ -701,19 +717,23 @@
         <v>9</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1234</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6">
+        <v>44333</v>
+      </c>
       <c r="J4" s="6">
         <v>200181600</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>5</v>
@@ -721,23 +741,24 @@
       <c r="N4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="O4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6">
         <v>5649</v>
@@ -749,28 +770,37 @@
         <v>9</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6">
+        <v>44333</v>
+      </c>
+      <c r="J5" s="6">
+        <v>200181600</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>25</v>
@@ -785,23 +815,15 @@
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="6">
-        <v>44333</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6">
         <v>200181600</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
         <v>5</v>
       </c>
@@ -811,21 +833,24 @@
       <c r="N6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>37</v>
+    <row r="7" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6">
         <v>5649</v>
@@ -837,31 +862,132 @@
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="6">
-        <v>44333</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6">
         <v>200181600</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>43</v>
+      <c r="K7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1600</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuganathan\Documents\UiPath\POSCUIerror\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syuganathan\Documents\UiPath\POSCUI0713\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>CHUI - Sale with Non-PLCC customer and Exchange down</t>
+  </si>
+  <si>
+    <t>Cash Return</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -261,6 +267,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,148 +644,144 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:19" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5649</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
+        <v>200181600</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5649</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C4" s="14">
         <v>5649</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6">
+      <c r="F4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14">
         <v>200181600</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="K4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5649</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5649</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="6">
-        <v>44333</v>
-      </c>
-      <c r="J4" s="6">
-        <v>200181600</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8" t="s">
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
@@ -770,20 +796,12 @@
         <v>9</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="6">
-        <v>44333</v>
-      </c>
-      <c r="J5" s="6">
-        <v>200181600</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -800,7 +818,7 @@
     </row>
     <row r="6" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>25</v>
@@ -815,11 +833,17 @@
         <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1234</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6">
+        <v>44333</v>
+      </c>
       <c r="J6" s="6">
         <v>200181600</v>
       </c>
@@ -845,12 +869,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>46</v>
+    <row r="7" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6">
         <v>5649</v>
@@ -862,36 +886,32 @@
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1234</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="6">
+        <v>44333</v>
+      </c>
       <c r="J7" s="6">
         <v>200181600</v>
       </c>
-      <c r="K7" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="S7" s="8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -943,7 +963,7 @@
     </row>
     <row r="9" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>45</v>
@@ -967,7 +987,7 @@
         <v>200181600</v>
       </c>
       <c r="K9" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>5</v>
@@ -987,6 +1007,102 @@
       </c>
       <c r="R9" s="8"/>
       <c r="S9" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1600</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -153,11 +153,6 @@
     <t>01/01</t>
   </si>
   <si>
-    <t>Complete the Sale successfully and return to main menu.
-If Revolving charge is given as 'N' then capture the error message on Promo Card apply and return to main menu
-If SSN details are invalid, capture error and return to main menu</t>
-  </si>
-  <si>
     <t>Complete the return successfully and return to main menu
 If salesperson ID is incorrect, capture error and return to main screen
 If customer is not available, capture error and return to main screen</t>
@@ -182,6 +177,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -246,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,9 +269,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -571,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +585,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -617,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>15</v>
@@ -644,234 +639,240 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="15">
+        <v>5649</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1556</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="15">
+        <v>19133</v>
+      </c>
+      <c r="J2" s="15">
+        <v>200181600</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5649</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1556</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="15">
+        <v>19133</v>
+      </c>
+      <c r="J3" s="15">
+        <v>200181600</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C4" s="10">
         <v>5649</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10">
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
         <v>200181600</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+      <c r="K4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="Q4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    </row>
+    <row r="5" spans="1:19" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5649</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="R5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13">
+        <v>5649</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
+        <v>200181600</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="10">
-        <v>5649</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="14">
-        <v>5649</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
-        <v>200181600</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="N6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="15" t="s">
+      <c r="P6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6">
-        <v>5649</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5649</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="6">
-        <v>44333</v>
-      </c>
-      <c r="J6" s="6">
-        <v>200181600</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
+      <c r="R6" s="14"/>
+      <c r="S6" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>31</v>
@@ -886,20 +887,12 @@
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1234</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="6">
-        <v>44333</v>
-      </c>
-      <c r="J7" s="6">
-        <v>200181600</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -911,12 +904,12 @@
         <v>33</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>25</v>
@@ -931,11 +924,17 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1556</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="6">
+        <v>19133</v>
+      </c>
       <c r="J8" s="6">
         <v>200181600</v>
       </c>
@@ -961,12 +960,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>46</v>
+    <row r="9" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6">
         <v>5649</v>
@@ -978,36 +977,32 @@
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1556</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="15">
+        <v>19133</v>
+      </c>
       <c r="J9" s="6">
         <v>200181600</v>
       </c>
-      <c r="K9" s="6">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="S9" s="8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -1059,10 +1054,10 @@
     </row>
     <row r="11" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6">
         <v>5649</v>
@@ -1083,7 +1078,7 @@
         <v>200181600</v>
       </c>
       <c r="K11" s="6">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>5</v>
@@ -1103,6 +1098,102 @@
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <v>200181600</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1600</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Data Files/POS-TestData.xlsx
+++ b/Data Files/POS-TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="50">
   <si>
     <t>SalesPerson</t>
   </si>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,240 +639,232 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:19" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5649</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
+        <v>200181600</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="11"/>
+      <c r="Q2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5649</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="R3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="12" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5649</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <v>200181600</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5649</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C6" s="6">
         <v>5649</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15">
-        <v>1556</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G6" s="6">
+        <v>1234</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="15">
-        <v>19133</v>
-      </c>
-      <c r="J2" s="15">
+      <c r="I6" s="6">
+        <v>44333</v>
+      </c>
+      <c r="J6" s="6">
         <v>200181600</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="12" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15">
-        <v>5649</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1556</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="15">
-        <v>19133</v>
-      </c>
-      <c r="J3" s="15">
-        <v>200181600</v>
-      </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10">
-        <v>5649</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10">
-        <v>200181600</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="Q4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5649</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="R5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="13">
-        <v>5649</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13">
-        <v>200181600</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14" t="s">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>31</v>
@@ -887,12 +879,20 @@
         <v>9</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1234</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="15">
+        <v>44333</v>
+      </c>
+      <c r="J7" s="6">
+        <v>200181600</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -909,7 +909,7 @@
     </row>
     <row r="8" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>25</v>
@@ -924,17 +924,11 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1556</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="6">
-        <v>19133</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="6">
         <v>200181600</v>
       </c>
@@ -960,12 +954,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>36</v>
+    <row r="9" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6">
         <v>5649</v>
@@ -977,32 +971,36 @@
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1556</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="15">
-        <v>19133</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="6">
         <v>200181600</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K9" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="8"/>
       <c r="S9" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -1054,7 +1052,7 @@
     </row>
     <row r="11" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>44</v>
@@ -1078,7 +1076,7 @@
         <v>200181600</v>
       </c>
       <c r="K11" s="6">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>5</v>
@@ -1098,102 +1096,6 @@
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6">
-        <v>5649</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
-        <v>200181600</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5649</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6">
-        <v>200181600</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1600</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
